--- a/data_year/zb/能源/城市能源产品供应.xlsx
+++ b/data_year/zb/能源/城市能源产品供应.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,526 +468,301 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>152.4</v>
+        <v>279.938</v>
       </c>
       <c r="C2" t="n">
-        <v>3944.45</v>
+        <v>2802</v>
       </c>
       <c r="D2" t="n">
-        <v>82.09999999999999</v>
+        <v>487.5808</v>
       </c>
       <c r="E2" t="n">
-        <v>2580.98</v>
+        <v>17021</v>
       </c>
       <c r="F2" t="n">
-        <v>1053.7147</v>
+        <v>1268.0054</v>
       </c>
       <c r="G2" t="n">
-        <v>11106.62</v>
+        <v>16503</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>136.914375</v>
+        <v>84.725587</v>
       </c>
       <c r="C3" t="n">
-        <v>4349.09</v>
+        <v>2676.33</v>
       </c>
       <c r="D3" t="n">
-        <v>105.51961</v>
+        <v>678.799723</v>
       </c>
       <c r="E3" t="n">
-        <v>3239.87</v>
+        <v>19027.8</v>
       </c>
       <c r="F3" t="n">
-        <v>975.83129</v>
+        <v>1165.832608</v>
       </c>
       <c r="G3" t="n">
-        <v>14009.18</v>
+        <v>16093.58</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>198.9196</v>
+        <v>76.9686</v>
       </c>
       <c r="C4" t="n">
-        <v>4541</v>
+        <v>2442.28</v>
       </c>
       <c r="D4" t="n">
-        <v>125.9334</v>
+        <v>795.0377</v>
       </c>
       <c r="E4" t="n">
-        <v>3686</v>
+        <v>21207.53</v>
       </c>
       <c r="F4" t="n">
-        <v>1136.3884</v>
+        <v>1114.8032</v>
       </c>
       <c r="G4" t="n">
-        <v>15431</v>
+        <v>15682.86</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>202.088324</v>
+        <v>62.798877</v>
       </c>
       <c r="C5" t="n">
-        <v>4792.08</v>
+        <v>1942.99</v>
       </c>
       <c r="D5" t="n">
-        <v>141.641533</v>
+        <v>900.990392</v>
       </c>
       <c r="E5" t="n">
-        <v>4320.24</v>
+        <v>23783.44</v>
       </c>
       <c r="F5" t="n">
-        <v>1126.35</v>
+        <v>1109.729791</v>
       </c>
       <c r="G5" t="n">
-        <v>16833.94</v>
+        <v>15101.95</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>213.722481</v>
+        <v>55.951269</v>
       </c>
       <c r="C6" t="n">
-        <v>4653.82</v>
+        <v>1757.01</v>
       </c>
       <c r="D6" t="n">
-        <v>169.336431</v>
+        <v>964.378286</v>
       </c>
       <c r="E6" t="n">
-        <v>5627.55</v>
+        <v>25972.94</v>
       </c>
       <c r="F6" t="n">
-        <v>1126.711993</v>
+        <v>1082.849026</v>
       </c>
       <c r="G6" t="n">
-        <v>17559.17</v>
+        <v>14378.41</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>255.834328</v>
+        <v>47.1378</v>
       </c>
       <c r="C7" t="n">
-        <v>4368.55</v>
+        <v>1322</v>
       </c>
       <c r="D7" t="n">
-        <v>210.495114</v>
+        <v>1040.7906</v>
       </c>
       <c r="E7" t="n">
-        <v>7104.4</v>
+        <v>28561</v>
       </c>
       <c r="F7" t="n">
-        <v>1222.014135</v>
+        <v>1039.2169</v>
       </c>
       <c r="G7" t="n">
-        <v>18012.82</v>
+        <v>13955</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>296.45</v>
+        <v>44.0944</v>
       </c>
       <c r="C8" t="n">
-        <v>4066.61</v>
+        <v>1085</v>
       </c>
       <c r="D8" t="n">
-        <v>244.7742</v>
+        <v>1171.7186</v>
       </c>
       <c r="E8" t="n">
-        <v>8319.4</v>
+        <v>30856</v>
       </c>
       <c r="F8" t="n">
-        <v>1263.6613</v>
+        <v>1078.8042</v>
       </c>
       <c r="G8" t="n">
-        <v>17100.27</v>
+        <v>13744</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>322.3512</v>
+        <v>27.0882</v>
       </c>
       <c r="C9" t="n">
-        <v>4021.7</v>
+        <v>752</v>
       </c>
       <c r="D9" t="n">
-        <v>308.6363</v>
+        <v>1263.7546</v>
       </c>
       <c r="E9" t="n">
-        <v>10189.8</v>
+        <v>33934</v>
       </c>
       <c r="F9" t="n">
-        <v>1466.769221</v>
+        <v>998.8088</v>
       </c>
       <c r="G9" t="n">
-        <v>18172.34</v>
+        <v>12616</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>355.828655</v>
+        <v>29.7893</v>
       </c>
       <c r="C10" t="n">
-        <v>3369.61</v>
+        <v>779</v>
       </c>
       <c r="D10" t="n">
-        <v>368.0393</v>
+        <v>1443.9538</v>
       </c>
       <c r="E10" t="n">
-        <v>12167.09</v>
+        <v>36902</v>
       </c>
       <c r="F10" t="n">
-        <v>1329.107187</v>
+        <v>1015.3298</v>
       </c>
       <c r="G10" t="n">
-        <v>17632.14</v>
+        <v>11782</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>361.55074</v>
+        <v>27.6841</v>
       </c>
       <c r="C11" t="n">
-        <v>2971</v>
+        <v>675</v>
       </c>
       <c r="D11" t="n">
-        <v>405.099609</v>
+        <v>1608.557</v>
       </c>
       <c r="E11" t="n">
-        <v>14543.68</v>
+        <v>39025</v>
       </c>
       <c r="F11" t="n">
-        <v>1340.030268</v>
+        <v>1040.811</v>
       </c>
       <c r="G11" t="n">
-        <v>16924.46</v>
+        <v>11297</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>279.938034</v>
+        <v>23.1447</v>
       </c>
       <c r="C12" t="n">
-        <v>2801.94</v>
+        <v>548</v>
       </c>
       <c r="D12" t="n">
-        <v>487.580814</v>
+        <v>1563.702</v>
       </c>
       <c r="E12" t="n">
-        <v>17021.22</v>
+        <v>41302</v>
       </c>
       <c r="F12" t="n">
-        <v>1268.00535</v>
+        <v>833.7109</v>
       </c>
       <c r="G12" t="n">
-        <v>16502.73</v>
+        <v>10767</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>84.725587</v>
+        <v>18.723418</v>
       </c>
       <c r="C13" t="n">
-        <v>2676.33</v>
+        <v>455.77</v>
       </c>
       <c r="D13" t="n">
-        <v>678.799723</v>
+        <v>1721.061247</v>
       </c>
       <c r="E13" t="n">
-        <v>19027.8</v>
+        <v>44195.53</v>
       </c>
       <c r="F13" t="n">
-        <v>1165.832608</v>
+        <v>860.6840580000001</v>
       </c>
       <c r="G13" t="n">
-        <v>16093.58</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>76.9686</v>
-      </c>
-      <c r="C14" t="n">
-        <v>2442.28</v>
-      </c>
-      <c r="D14" t="n">
-        <v>795.0377</v>
-      </c>
-      <c r="E14" t="n">
-        <v>21207.53</v>
-      </c>
-      <c r="F14" t="n">
-        <v>1114.8032</v>
-      </c>
-      <c r="G14" t="n">
-        <v>15682.86</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>62.798877</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1942.99</v>
-      </c>
-      <c r="D15" t="n">
-        <v>900.990392</v>
-      </c>
-      <c r="E15" t="n">
-        <v>23783.44</v>
-      </c>
-      <c r="F15" t="n">
-        <v>1109.729791</v>
-      </c>
-      <c r="G15" t="n">
-        <v>15101.95</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>55.951269</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1757.01</v>
-      </c>
-      <c r="D16" t="n">
-        <v>964.378286</v>
-      </c>
-      <c r="E16" t="n">
-        <v>25972.94</v>
-      </c>
-      <c r="F16" t="n">
-        <v>1082.849026</v>
-      </c>
-      <c r="G16" t="n">
-        <v>14378.41</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>47.137801</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1321.73</v>
-      </c>
-      <c r="D17" t="n">
-        <v>1040.79062</v>
-      </c>
-      <c r="E17" t="n">
-        <v>28561.47</v>
-      </c>
-      <c r="F17" t="n">
-        <v>1039.216892</v>
-      </c>
-      <c r="G17" t="n">
-        <v>13955.06</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>44.094383</v>
-      </c>
-      <c r="C18" t="n">
-        <v>1085.22</v>
-      </c>
-      <c r="D18" t="n">
-        <v>1171.71857</v>
-      </c>
-      <c r="E18" t="n">
-        <v>30855.57</v>
-      </c>
-      <c r="F18" t="n">
-        <v>1078.804185</v>
-      </c>
-      <c r="G18" t="n">
-        <v>13743.77</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>27.088163</v>
-      </c>
-      <c r="C19" t="n">
-        <v>751.72</v>
-      </c>
-      <c r="D19" t="n">
-        <v>1263.754572</v>
-      </c>
-      <c r="E19" t="n">
-        <v>33933.87</v>
-      </c>
-      <c r="F19" t="n">
-        <v>998.808822</v>
-      </c>
-      <c r="G19" t="n">
-        <v>12615.7</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>29.7893</v>
-      </c>
-      <c r="C20" t="n">
-        <v>778.79</v>
-      </c>
-      <c r="D20" t="n">
-        <v>1443.953789</v>
-      </c>
-      <c r="E20" t="n">
-        <v>36902.14</v>
-      </c>
-      <c r="F20" t="n">
-        <v>1015.329777</v>
-      </c>
-      <c r="G20" t="n">
-        <v>11782.47</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>27.684147</v>
-      </c>
-      <c r="C21" t="n">
-        <v>675.37</v>
-      </c>
-      <c r="D21" t="n">
-        <v>1608.556983</v>
-      </c>
-      <c r="E21" t="n">
-        <v>39024.99</v>
-      </c>
-      <c r="F21" t="n">
-        <v>1040.811029</v>
-      </c>
-      <c r="G21" t="n">
-        <v>11297.1</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>23.144726</v>
-      </c>
-      <c r="C22" t="n">
-        <v>548.2</v>
-      </c>
-      <c r="D22" t="n">
-        <v>1563.701969</v>
-      </c>
-      <c r="E22" t="n">
-        <v>41301.6</v>
-      </c>
-      <c r="F22" t="n">
-        <v>833.710906</v>
-      </c>
-      <c r="G22" t="n">
-        <v>10767.47</v>
+        <v>10180.49</v>
       </c>
     </row>
   </sheetData>
